--- a/data/trans_orig/P36BPD11_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD11_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4432153-27CC-4237-9669-DA8D619E4A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABFA12D3-06B0-4635-8236-7DCBE72AA920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{770734DC-3733-4E72-9345-0D321DF6CC30}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1380BD0A-B4D8-418B-92B6-FB786B1EE33B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>51,22%</t>
   </si>
   <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
   </si>
   <si>
     <t>43,4%</t>
   </si>
   <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
   </si>
   <si>
     <t>47,23%</t>
   </si>
   <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
   </si>
   <si>
     <t>Uno o dos a la semana</t>
@@ -104,28 +104,28 @@
     <t>35,07%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
   </si>
   <si>
     <t>42,35%</t>
   </si>
   <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
   </si>
   <si>
     <t>38,79%</t>
   </si>
   <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
   </si>
   <si>
     <t>Tres o más a la semana</t>
@@ -134,358 +134,364 @@
     <t>13,71%</t>
   </si>
   <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
   </si>
   <si>
     <t>8,79%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -494,82 +500,79 @@
     <t>44,03%</t>
   </si>
   <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
   </si>
   <si>
     <t>50,29%</t>
   </si>
   <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
   </si>
   <si>
     <t>47,15%</t>
   </si>
   <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
+    <t>50,65%</t>
   </si>
   <si>
     <t>26,98%</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
   </si>
   <si>
     <t>33,51%</t>
   </si>
   <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
   </si>
   <si>
     <t>30,23%</t>
   </si>
   <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
   </si>
   <si>
     <t>29,0%</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
   </si>
   <si>
     <t>22,62%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -578,82 +581,79 @@
     <t>58,13%</t>
   </si>
   <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
   </si>
   <si>
     <t>70,01%</t>
   </si>
   <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
   </si>
   <si>
     <t>64,8%</t>
   </si>
   <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
   </si>
   <si>
     <t>22,21%</t>
   </si>
   <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>18,81%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
+    <t>21,6%</t>
   </si>
   <si>
     <t>19,66%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -662,157 +662,157 @@
     <t>30,25%</t>
   </si>
   <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
   </si>
   <si>
     <t>31,39%</t>
   </si>
   <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>30,82%</t>
   </si>
   <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
   </si>
   <si>
     <t>56,78%</t>
   </si>
   <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
   </si>
   <si>
     <t>58,7%</t>
   </si>
   <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
   </si>
   <si>
     <t>57,74%</t>
   </si>
   <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
   </si>
   <si>
     <t>45,87%</t>
   </si>
   <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>48,02%</t>
   </si>
   <si>
-    <t>50,88%</t>
+    <t>51,05%</t>
   </si>
   <si>
     <t>36,86%</t>
   </si>
   <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
   </si>
   <si>
     <t>35,68%</t>
   </si>
   <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
   </si>
   <si>
     <t>36,23%</t>
   </si>
   <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
   </si>
   <si>
     <t>17,28%</t>
   </si>
   <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
     <t>15,75%</t>
   </si>
   <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1227,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27F8D5D-BF98-46F4-9118-90F52CBB6328}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5410EE-4B23-41C8-89CC-C4A24C9FB084}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1766,10 +1766,10 @@
         <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>288</v>
@@ -1778,13 +1778,13 @@
         <v>200647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>475</v>
@@ -1793,13 +1793,13 @@
         <v>359881</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,13 +1814,13 @@
         <v>91785</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>152</v>
@@ -1829,13 +1829,13 @@
         <v>106655</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>248</v>
@@ -1844,13 +1844,13 @@
         <v>198440</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,13 +1865,13 @@
         <v>71221</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>96</v>
@@ -1880,13 +1880,13 @@
         <v>65981</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -1895,13 +1895,13 @@
         <v>137203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,7 +1957,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1969,13 +1969,13 @@
         <v>155675</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>286</v>
@@ -1984,13 +1984,13 @@
         <v>178548</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>436</v>
@@ -1999,13 +1999,13 @@
         <v>334223</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +2020,13 @@
         <v>79903</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>165</v>
@@ -2035,13 +2035,13 @@
         <v>132289</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="M17" s="7">
         <v>238</v>
@@ -2244,10 +2244,10 @@
         <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>105</v>
@@ -2256,13 +2256,13 @@
         <v>64995</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2277,13 @@
         <v>19316</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -2292,13 +2292,13 @@
         <v>20314</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>70</v>
@@ -2307,13 +2307,13 @@
         <v>39630</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,7 +2369,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2381,13 +2381,13 @@
         <v>122052</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>243</v>
@@ -2396,13 +2396,13 @@
         <v>138620</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>422</v>
@@ -2411,13 +2411,13 @@
         <v>260672</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,13 +2432,13 @@
         <v>74783</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>141</v>
@@ -2447,13 +2447,13 @@
         <v>92355</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>237</v>
@@ -2462,13 +2462,13 @@
         <v>167139</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2483,13 @@
         <v>80387</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>76</v>
@@ -2498,13 +2498,13 @@
         <v>44647</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>172</v>
@@ -2513,13 +2513,13 @@
         <v>125034</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,7 +2575,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2587,13 +2587,13 @@
         <v>364296</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H28" s="7">
         <v>637</v>
@@ -2602,13 +2602,13 @@
         <v>562015</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M28" s="7">
         <v>995</v>
@@ -2617,13 +2617,13 @@
         <v>926312</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2638,13 @@
         <v>139182</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>168</v>
@@ -2653,13 +2653,13 @@
         <v>129744</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>290</v>
@@ -2668,10 +2668,10 @@
         <v>268927</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>196</v>
@@ -3032,7 +3032,7 @@
         <v>240</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>241</v>
@@ -3122,7 +3122,7 @@
         <v>255</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M38" s="7">
         <v>1330</v>
@@ -3131,7 +3131,7 @@
         <v>1131516</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>257</v>

--- a/data/trans_orig/P36BPD11_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD11_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABFA12D3-06B0-4635-8236-7DCBE72AA920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA19955C-F109-44EE-B5F0-EC53E6F76795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1380BD0A-B4D8-418B-92B6-FB786B1EE33B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3F5A50F7-0575-4F25-BE02-850DD2B03138}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="258">
   <si>
     <t>Población según el número de veces que consumen repostería comercial a la semana en 2023 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -71,91 +71,91 @@
     <t>Menos de una a la semana</t>
   </si>
   <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
   </si>
   <si>
     <t>Uno o dos a la semana</t>
   </si>
   <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
   </si>
   <si>
     <t>Tres o más a la semana</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,655 +164,649 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
     <t>49,41%</t>
   </si>
   <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1227,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5410EE-4B23-41C8-89CC-C4A24C9FB084}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24154B92-B858-4D2F-A634-15878E7D7D3A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1348,7 +1342,7 @@
         <v>176</v>
       </c>
       <c r="D4" s="7">
-        <v>133321</v>
+        <v>158000</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1363,7 +1357,7 @@
         <v>245</v>
       </c>
       <c r="I4" s="7">
-        <v>117779</v>
+        <v>123167</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1378,7 +1372,7 @@
         <v>421</v>
       </c>
       <c r="N4" s="7">
-        <v>251100</v>
+        <v>281167</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1399,7 +1393,7 @@
         <v>110</v>
       </c>
       <c r="D5" s="7">
-        <v>91295</v>
+        <v>110570</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1414,7 +1408,7 @@
         <v>228</v>
       </c>
       <c r="I5" s="7">
-        <v>114945</v>
+        <v>122888</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1429,7 +1423,7 @@
         <v>338</v>
       </c>
       <c r="N5" s="7">
-        <v>206240</v>
+        <v>233458</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1450,7 +1444,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="7">
-        <v>35681</v>
+        <v>42872</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1465,7 +1459,7 @@
         <v>65</v>
       </c>
       <c r="I6" s="7">
-        <v>38680</v>
+        <v>43580</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1480,7 +1474,7 @@
         <v>110</v>
       </c>
       <c r="N6" s="7">
-        <v>74361</v>
+        <v>86452</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1501,7 +1495,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1516,7 +1510,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1531,7 +1525,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1554,7 +1548,7 @@
         <v>166</v>
       </c>
       <c r="D8" s="7">
-        <v>215281</v>
+        <v>213622</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1569,7 +1563,7 @@
         <v>325</v>
       </c>
       <c r="I8" s="7">
-        <v>246833</v>
+        <v>229704</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1584,7 +1578,7 @@
         <v>491</v>
       </c>
       <c r="N8" s="7">
-        <v>462114</v>
+        <v>443326</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1605,7 +1599,7 @@
         <v>175</v>
       </c>
       <c r="D9" s="7">
-        <v>245960</v>
+        <v>246277</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1620,7 +1614,7 @@
         <v>305</v>
       </c>
       <c r="I9" s="7">
-        <v>242027</v>
+        <v>224429</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1635,7 +1629,7 @@
         <v>480</v>
       </c>
       <c r="N9" s="7">
-        <v>487988</v>
+        <v>470707</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1656,7 +1650,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>58056</v>
+        <v>58490</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1671,7 +1665,7 @@
         <v>87</v>
       </c>
       <c r="I10" s="7">
-        <v>65706</v>
+        <v>60836</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1686,7 +1680,7 @@
         <v>128</v>
       </c>
       <c r="N10" s="7">
-        <v>123762</v>
+        <v>119326</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1707,7 +1701,7 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1722,7 +1716,7 @@
         <v>717</v>
       </c>
       <c r="I11" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1737,7 +1731,7 @@
         <v>1099</v>
       </c>
       <c r="N11" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1760,7 +1754,7 @@
         <v>187</v>
       </c>
       <c r="D12" s="7">
-        <v>159234</v>
+        <v>155595</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1775,7 +1769,7 @@
         <v>288</v>
       </c>
       <c r="I12" s="7">
-        <v>200647</v>
+        <v>187147</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1790,7 +1784,7 @@
         <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>359881</v>
+        <v>342742</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -1811,7 +1805,7 @@
         <v>96</v>
       </c>
       <c r="D13" s="7">
-        <v>91785</v>
+        <v>90652</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -1826,7 +1820,7 @@
         <v>152</v>
       </c>
       <c r="I13" s="7">
-        <v>106655</v>
+        <v>100598</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -1841,7 +1835,7 @@
         <v>248</v>
       </c>
       <c r="N13" s="7">
-        <v>198440</v>
+        <v>191250</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -1862,7 +1856,7 @@
         <v>77</v>
       </c>
       <c r="D14" s="7">
-        <v>71221</v>
+        <v>69803</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1877,7 +1871,7 @@
         <v>96</v>
       </c>
       <c r="I14" s="7">
-        <v>65981</v>
+        <v>61384</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -1892,7 +1886,7 @@
         <v>173</v>
       </c>
       <c r="N14" s="7">
-        <v>137203</v>
+        <v>131187</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -1913,7 +1907,7 @@
         <v>360</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1928,7 +1922,7 @@
         <v>536</v>
       </c>
       <c r="I15" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1943,7 +1937,7 @@
         <v>896</v>
       </c>
       <c r="N15" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1966,7 +1960,7 @@
         <v>150</v>
       </c>
       <c r="D16" s="7">
-        <v>155675</v>
+        <v>149293</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -1981,7 +1975,7 @@
         <v>286</v>
       </c>
       <c r="I16" s="7">
-        <v>178548</v>
+        <v>165099</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>101</v>
@@ -1996,7 +1990,7 @@
         <v>436</v>
       </c>
       <c r="N16" s="7">
-        <v>334223</v>
+        <v>314392</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>104</v>
@@ -2017,7 +2011,7 @@
         <v>73</v>
       </c>
       <c r="D17" s="7">
-        <v>79903</v>
+        <v>76861</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>107</v>
@@ -2032,7 +2026,7 @@
         <v>165</v>
       </c>
       <c r="I17" s="7">
-        <v>132289</v>
+        <v>177307</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>110</v>
@@ -2041,22 +2035,22 @@
         <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>238</v>
       </c>
       <c r="N17" s="7">
-        <v>212193</v>
+        <v>254168</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,46 +2062,46 @@
         <v>66</v>
       </c>
       <c r="D18" s="7">
-        <v>84980</v>
+        <v>84780</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>143</v>
       </c>
       <c r="I18" s="7">
-        <v>114912</v>
+        <v>130655</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>209</v>
       </c>
       <c r="N18" s="7">
-        <v>199891</v>
+        <v>215436</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,7 +2113,7 @@
         <v>289</v>
       </c>
       <c r="D19" s="7">
-        <v>320558</v>
+        <v>310934</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2134,7 +2128,7 @@
         <v>594</v>
       </c>
       <c r="I19" s="7">
-        <v>425749</v>
+        <v>473061</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2149,7 +2143,7 @@
         <v>883</v>
       </c>
       <c r="N19" s="7">
-        <v>746307</v>
+        <v>783995</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2163,7 +2157,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2172,43 +2166,43 @@
         <v>205</v>
       </c>
       <c r="D20" s="7">
-        <v>141568</v>
+        <v>128902</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>389</v>
       </c>
       <c r="I20" s="7">
-        <v>181544</v>
+        <v>163491</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>594</v>
       </c>
       <c r="N20" s="7">
-        <v>323111</v>
+        <v>292393</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>133</v>
@@ -2223,7 +2217,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="7">
-        <v>35864</v>
+        <v>32325</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>134</v>
@@ -2238,7 +2232,7 @@
         <v>58</v>
       </c>
       <c r="I21" s="7">
-        <v>29131</v>
+        <v>25764</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>137</v>
@@ -2253,7 +2247,7 @@
         <v>105</v>
       </c>
       <c r="N21" s="7">
-        <v>64995</v>
+        <v>58089</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>140</v>
@@ -2274,7 +2268,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="7">
-        <v>19316</v>
+        <v>17515</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>143</v>
@@ -2289,7 +2283,7 @@
         <v>43</v>
       </c>
       <c r="I22" s="7">
-        <v>20314</v>
+        <v>18560</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>146</v>
@@ -2304,7 +2298,7 @@
         <v>70</v>
       </c>
       <c r="N22" s="7">
-        <v>39630</v>
+        <v>36075</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>149</v>
@@ -2325,7 +2319,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2340,7 +2334,7 @@
         <v>490</v>
       </c>
       <c r="I23" s="7">
-        <v>230989</v>
+        <v>207814</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2355,7 +2349,7 @@
         <v>769</v>
       </c>
       <c r="N23" s="7">
-        <v>427736</v>
+        <v>386556</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2378,7 +2372,7 @@
         <v>179</v>
       </c>
       <c r="D24" s="7">
-        <v>122052</v>
+        <v>117949</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>153</v>
@@ -2393,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="I24" s="7">
-        <v>138620</v>
+        <v>129281</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>156</v>
@@ -2408,16 +2402,16 @@
         <v>422</v>
       </c>
       <c r="N24" s="7">
-        <v>260672</v>
+        <v>247230</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,46 +2423,46 @@
         <v>96</v>
       </c>
       <c r="D25" s="7">
-        <v>74783</v>
+        <v>73135</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>141</v>
       </c>
       <c r="I25" s="7">
-        <v>92355</v>
+        <v>86075</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>237</v>
       </c>
       <c r="N25" s="7">
-        <v>167139</v>
+        <v>159210</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,46 +2474,46 @@
         <v>96</v>
       </c>
       <c r="D26" s="7">
-        <v>80387</v>
+        <v>78552</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>76</v>
       </c>
       <c r="I26" s="7">
-        <v>44647</v>
+        <v>41701</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>172</v>
       </c>
       <c r="N26" s="7">
-        <v>125034</v>
+        <v>120253</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,7 +2525,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2546,7 +2540,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -2561,7 +2555,7 @@
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -2575,7 +2569,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2584,46 +2578,46 @@
         <v>358</v>
       </c>
       <c r="D28" s="7">
-        <v>364296</v>
+        <v>363102</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>637</v>
       </c>
       <c r="I28" s="7">
-        <v>562015</v>
+        <v>624490</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M28" s="7">
         <v>995</v>
       </c>
       <c r="N28" s="7">
-        <v>926312</v>
+        <v>987592</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,46 +2629,46 @@
         <v>122</v>
       </c>
       <c r="D29" s="7">
-        <v>139182</v>
+        <v>138807</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>168</v>
       </c>
       <c r="I29" s="7">
-        <v>129744</v>
+        <v>120378</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="M29" s="7">
         <v>290</v>
       </c>
       <c r="N29" s="7">
-        <v>268927</v>
+        <v>259185</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,43 +2680,43 @@
         <v>118</v>
       </c>
       <c r="D30" s="7">
-        <v>123199</v>
+        <v>121341</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>153</v>
       </c>
       <c r="I30" s="7">
-        <v>110958</v>
+        <v>103035</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>271</v>
       </c>
       <c r="N30" s="7">
-        <v>234157</v>
+        <v>224376</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>205</v>
@@ -2737,7 +2731,7 @@
         <v>598</v>
       </c>
       <c r="D31" s="7">
-        <v>626677</v>
+        <v>623250</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -2752,7 +2746,7 @@
         <v>958</v>
       </c>
       <c r="I31" s="7">
-        <v>802718</v>
+        <v>847903</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -2767,7 +2761,7 @@
         <v>1556</v>
       </c>
       <c r="N31" s="7">
-        <v>1429396</v>
+        <v>1471153</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -2790,7 +2784,7 @@
         <v>202</v>
       </c>
       <c r="D32" s="7">
-        <v>259953</v>
+        <v>421554</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>207</v>
@@ -2805,7 +2799,7 @@
         <v>333</v>
       </c>
       <c r="I32" s="7">
-        <v>272353</v>
+        <v>225692</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>210</v>
@@ -2820,7 +2814,7 @@
         <v>535</v>
       </c>
       <c r="N32" s="7">
-        <v>532306</v>
+        <v>647246</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>213</v>
@@ -2841,7 +2835,7 @@
         <v>462</v>
       </c>
       <c r="D33" s="7">
-        <v>487977</v>
+        <v>413894</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>216</v>
@@ -2856,7 +2850,7 @@
         <v>629</v>
       </c>
       <c r="I33" s="7">
-        <v>509241</v>
+        <v>422120</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>219</v>
@@ -2871,7 +2865,7 @@
         <v>1091</v>
       </c>
       <c r="N33" s="7">
-        <v>997218</v>
+        <v>836014</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>222</v>
@@ -2892,7 +2886,7 @@
         <v>98</v>
       </c>
       <c r="D34" s="7">
-        <v>111498</v>
+        <v>93272</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>225</v>
@@ -2907,31 +2901,31 @@
         <v>99</v>
       </c>
       <c r="I34" s="7">
-        <v>85980</v>
+        <v>69191</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M34" s="7">
         <v>197</v>
       </c>
       <c r="N34" s="7">
-        <v>197478</v>
+        <v>162463</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,7 +2937,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>40</v>
@@ -2958,7 +2952,7 @@
         <v>1061</v>
       </c>
       <c r="I35" s="7">
-        <v>867574</v>
+        <v>717003</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>40</v>
@@ -2973,7 +2967,7 @@
         <v>1823</v>
       </c>
       <c r="N35" s="7">
-        <v>1727002</v>
+        <v>1645723</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -2996,43 +2990,43 @@
         <v>1623</v>
       </c>
       <c r="D36" s="7">
-        <v>1551381</v>
+        <v>1708017</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H36" s="7">
         <v>2746</v>
       </c>
       <c r="I36" s="7">
-        <v>1898339</v>
+        <v>1848070</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>4369</v>
       </c>
       <c r="N36" s="7">
-        <v>3449720</v>
+        <v>3556088</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>241</v>
@@ -3047,46 +3041,46 @@
         <v>1181</v>
       </c>
       <c r="D37" s="7">
-        <v>1246750</v>
+        <v>1182522</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>244</v>
+        <v>110</v>
       </c>
       <c r="H37" s="7">
         <v>1846</v>
       </c>
       <c r="I37" s="7">
-        <v>1356389</v>
+        <v>1279558</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M37" s="7">
         <v>3027</v>
       </c>
       <c r="N37" s="7">
-        <v>2603139</v>
+        <v>2462079</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>250</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,46 +3092,46 @@
         <v>568</v>
       </c>
       <c r="D38" s="7">
-        <v>584338</v>
+        <v>566626</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H38" s="7">
         <v>762</v>
       </c>
       <c r="I38" s="7">
-        <v>547178</v>
+        <v>528940</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M38" s="7">
         <v>1330</v>
       </c>
       <c r="N38" s="7">
-        <v>1131516</v>
+        <v>1095566</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,7 +3143,7 @@
         <v>3372</v>
       </c>
       <c r="D39" s="7">
-        <v>3382469</v>
+        <v>3457165</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -3164,7 +3158,7 @@
         <v>5354</v>
       </c>
       <c r="I39" s="7">
-        <v>3801906</v>
+        <v>3656568</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -3179,7 +3173,7 @@
         <v>8726</v>
       </c>
       <c r="N39" s="7">
-        <v>7184375</v>
+        <v>7113733</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -3193,7 +3187,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
